--- a/src/test/resources/testdata/Excel.xlsx
+++ b/src/test/resources/testdata/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabah\eclipse-workspace\TestNG6\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\repos\TestNGFramework66\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F77E04B-36E4-463C-99D8-D2AF2AF10D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDAD32-404D-4DC4-9FE3-41519A5BCD70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="2205" windowWidth="19755" windowHeight="12030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="2210" windowWidth="19760" windowHeight="12030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -41,41 +41,47 @@
     <t>Password</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Secret@123!!</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>johnWick2029</t>
-  </si>
-  <si>
-    <t>mary2029</t>
-  </si>
-  <si>
-    <t>david2029</t>
+    <t>Johyydnny</t>
+  </si>
+  <si>
+    <t>Smiththdh</t>
+  </si>
+  <si>
+    <t>Mayyryd</t>
+  </si>
+  <si>
+    <t>Ayynnd</t>
+  </si>
+  <si>
+    <t>Dayyyvidd</t>
+  </si>
+  <si>
+    <t>Browdyyn</t>
+  </si>
+  <si>
+    <t>davidf20d729</t>
+  </si>
+  <si>
+    <t>johndfbW7hhick2029</t>
+  </si>
+  <si>
+    <t>maryf2db7029</t>
+  </si>
+  <si>
+    <t>Se77cret@d123!!fb</t>
+  </si>
+  <si>
+    <t>Sec77ret@123d!!fb</t>
+  </si>
+  <si>
+    <t>Sdec77ret@123!!fb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -87,6 +93,14 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -108,14 +122,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,18 +468,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" customWidth="1"/>
+    <col min="4" max="4" width="73.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,36 +503,36 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +556,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -552,7 +569,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
